--- a/stage3-day1/Section1_確認テスト.xlsx
+++ b/stage3-day1/Section1_確認テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takas\rabbit\rabbit-report\stage3-day1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ACC261D-A31D-4667-9B88-CD0A0CF5AE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFCD7D5-2430-469F-A234-9EAA117CA892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8B80C50A-1D05-4E8C-A35A-A04DE6EDB407}"/>
   </bookViews>
@@ -31,6 +31,42 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>体長</t>
+    <rPh sb="0" eb="2">
+      <t>タイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <rPh sb="0" eb="2">
+      <t>タイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひげの本数</t>
+    <rPh sb="3" eb="5">
+      <t>ホンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毛の平均長</t>
+    <rPh sb="0" eb="1">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ヘイキンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1662,6 +1698,1830 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="楕円 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE07E02A-A559-4368-A374-90565A7F98A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="5562600"/>
+          <a:ext cx="657225" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="楕円 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6794F4BC-6191-45D1-AA34-A066EC348C17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="6610350"/>
+          <a:ext cx="657225" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="楕円 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D731491-4BDA-4E50-888E-A08E49D778B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="7658100"/>
+          <a:ext cx="657225" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="楕円 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71763937-AF46-4A2B-A1E4-6949D37DA253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657850" y="7610475"/>
+          <a:ext cx="657225" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="433388" cy="250453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="テキスト ボックス 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9A3311-5951-4EDD-9CBA-42E6329DB425}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2366962" y="5467350"/>
+              <a:ext cx="433388" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="テキスト ボックス 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9A3311-5951-4EDD-9CBA-42E6329DB425}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2366962" y="5467350"/>
+              <a:ext cx="433388" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_1</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="433388" cy="250453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="テキスト ボックス 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDACC9E-4F4F-48D2-9E51-5F8A0351F608}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2366962" y="6591300"/>
+              <a:ext cx="433388" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="テキスト ボックス 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDACC9E-4F4F-48D2-9E51-5F8A0351F608}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2366962" y="6591300"/>
+              <a:ext cx="433388" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_2</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="楕円 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C59CD46-FB4D-43D4-B846-63F8F7DA2497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="8686800"/>
+          <a:ext cx="657225" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="433388" cy="250453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="テキスト ボックス 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C953090E-75C0-4EBD-8107-2685E2E019C5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2366962" y="7600950"/>
+              <a:ext cx="433388" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="テキスト ボックス 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C953090E-75C0-4EBD-8107-2685E2E019C5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2366962" y="7600950"/>
+              <a:ext cx="433388" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_3</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="433388" cy="250453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="テキスト ボックス 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED194BE-B8E6-4DEA-9A46-E3A4A8AFE9B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2366962" y="8543925"/>
+              <a:ext cx="433388" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="テキスト ボックス 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED194BE-B8E6-4DEA-9A46-E3A4A8AFE9B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2366962" y="8543925"/>
+              <a:ext cx="433388" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_4</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C983B881-1849-45FA-B84D-191D9374EF39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="6"/>
+          <a:endCxn id="42" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="5857875"/>
+          <a:ext cx="2305050" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B950014C-AC85-4C4B-BBF6-877CC87A3435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="6"/>
+          <a:endCxn id="42" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="6905625"/>
+          <a:ext cx="2305050" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4540F30-A1A1-4322-A900-3E13D42F5994}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="6"/>
+          <a:endCxn id="42" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3352800" y="7905750"/>
+          <a:ext cx="2305050" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="290513" cy="250453"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7A42E2-A4ED-4970-BC7A-5CC6744A9968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4157662" y="9563100"/>
+          <a:ext cx="290513" cy="250453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>b</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EACFE6DD-FD64-4BA9-BDB4-50CC56F074BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="6"/>
+          <a:endCxn id="42" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3362325" y="7905750"/>
+          <a:ext cx="2295525" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3829A481-E0FD-40EA-89DD-EFD1DF9ABFA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="42" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4505325" y="7905750"/>
+          <a:ext cx="1152525" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="433388" cy="250453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="テキスト ボックス 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AC16D2-A839-4491-9D03-0CF0C74F92FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4167187" y="6172200"/>
+              <a:ext cx="433388" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑤</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="テキスト ボックス 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AC16D2-A839-4491-9D03-0CF0C74F92FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4167187" y="6172200"/>
+              <a:ext cx="433388" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑤_1</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="433388" cy="250453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="テキスト ボックス 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8E6A06-4CD1-45B0-B41A-E789F8CBCBCC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3986212" y="6953250"/>
+              <a:ext cx="433388" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑤</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="テキスト ボックス 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8E6A06-4CD1-45B0-B41A-E789F8CBCBCC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3986212" y="6953250"/>
+              <a:ext cx="433388" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑤_2</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="433388" cy="250453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="テキスト ボックス 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADAFFF4A-0D17-4E32-8863-6EAC4C57BAA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3929062" y="7639050"/>
+              <a:ext cx="433388" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑤</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="テキスト ボックス 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADAFFF4A-0D17-4E32-8863-6EAC4C57BAA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3929062" y="7639050"/>
+              <a:ext cx="433388" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑤_3</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="433388" cy="250453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="テキスト ボックス 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0C812A-450D-457E-A20B-77E94FCF0CBD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3843337" y="8353425"/>
+              <a:ext cx="433388" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑤</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="テキスト ボックス 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0C812A-450D-457E-A20B-77E94FCF0CBD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3843337" y="8353425"/>
+              <a:ext cx="433388" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑤_4</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1962,10 +3822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B202DC-9D0C-4BE7-9BDD-208C71B620F4}">
-  <dimension ref="A1:AB44"/>
+  <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2723,7 +4583,9 @@
     <row r="26" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2843,7 +4705,9 @@
     <row r="30" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2963,7 +4827,9 @@
     <row r="34" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -3083,7 +4949,9 @@
     <row r="38" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -3290,6 +5158,606 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
